--- a/data/xlsx/win10.xlsx
+++ b/data/xlsx/win10.xlsx
@@ -21,7 +21,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="234">
+  <si>
+    <t>div_class</t>
+  </si>
+  <si>
+    <t>col-sm-12</t>
+  </si>
   <si>
     <t>header1</t>
   </si>
@@ -29,36 +35,38 @@
     <t>広島大学必携PC初期講習会</t>
   </si>
   <si>
+    <t>templete</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2019 Win10</t>
   </si>
   <si>
-    <t>templete</t>
-  </si>
-  <si>
-    <t>index</t>
+    <t>&lt;h3&gt;Widows10編&lt;/h3&gt;</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Widows10編&lt;/h3&gt;
-2019年4月&lt;br&gt;
+    <t xml:space="preserve">2019年4月&lt;br&gt;
  広島大学 情報メディア教育研究センター&lt;br&gt;
  広島大学 消費生活協同組合 
  </t>
   </si>
   <si>
-    <t>col-sm-12</t>
-  </si>
-  <si>
     <t xml:space="preserve">必携PC初期講習会では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。本日おこなうことを以下にあげます。
   </t>
   </si>
   <si>
-    <t>div_class</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">購入したばかりの Windows 10 の電源を入れて、使い始められるようになるまでに必要な設定作業を説明します。 </t>
   </si>
   <si>
     <t>col-sm-4 col-md-6</t>
@@ -67,19 +75,13 @@
     <t>初期設定</t>
   </si>
   <si>
+    <t>img_class</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
     <t>FRESTA-TEXT-2019 Win10 chap.0</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">購入したばかりの Windows 10 の電源を入れて、使い始められるようになるまでに必要な設定作業を説明します。 </t>
-  </si>
-  <si>
-    <t>img_class</t>
-  </si>
-  <si>
-    <t>chart</t>
   </si>
   <si>
     <t xml:space="preserve">Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとは概ね言われるままにしていけば大丈夫です。
@@ -87,87 +89,116 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">[1] Windowsで使用する言語を選びます。「日本語」をクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-01.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2] Windows10に入っている、助手役アプリの「コルタナ」が自己紹介をします。以降コルタナの音声ガイドがあるのですがちょっと五月蝿いので画面左下のマイクアイコンをクリックして黙ってもらいましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-02.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3] 現在いる地域を選びます。日本ですね。これは、時間帯などを設定するための情報として使われます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-03.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4] キーボードについての質問に答えます。追加のレイアウトはないので、「スキップ」としましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-04.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5] ネットワークに接続するための画面がでます。あとで設定しますので、ここでは「今はスキップ」をクリックし、何もせずに飛ばします。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-06.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[6] Windows のソフトウェア・ライセンス条項が表示されます。
+    <t xml:space="preserve">Windowsで使用する言語を選びます。「日本語」をクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>chartn</t>
+  </si>
+  <si>
+    <t>win10-0-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows10に入っている、助手役アプリの「コルタナ」が自己紹介をします。以降コルタナの音声ガイドがあるのですがちょっと五月蝿いので画面左下のマイクアイコンをクリックして黙ってもらいましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">現在いる地域を選びます。日本ですね。これは、時間帯などを設定するための情報として使われます。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キーボードについての質問に答えます。追加のレイアウトはないので、「スキップ」としましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-04.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワークに接続するための画面がでます。あとで設定しますので、ここでは「今はスキップ」をクリックし、何もせずに飛ばします。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-06.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows のソフトウェア・ライセンス条項が表示されます。
 ここには、みなさんがどういう条件でWindows を利用できるかということが細かく書かれています。内容を確認して「同意する」をクリックしてください。
 ※ この内容は、「設定」→「システム」→「バージョン情報」の画面で「マイクロソフトライセンス条項を読む」をクリックすると、いつでも読めます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-05.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[7] PCを使うときのユーザ名を記入します。自分で使いやすいものをきめてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-05.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCを使うときのユーザ名を記入します。自分で使いやすいものをきめてください。
 「ユーザ名」は、&amp;quot;ayase&amp;quot; など名前をローマ字にしたものが一般的です。日本語も使えますが、そうするとたまに動かないソフトがあります。ユーザ名には日本語を使わないようにしましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-07.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[8] 「パスワード」は、十分に複雑な（でも、ちゃんと覚えていられて忘れないもの）を付けましょう。ユーザ名と同じものとか &amp;quot;333&amp;quot; とかすぐに類推できてしまうようなものを付けてはいけません。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-07.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「パスワード」は、十分に複雑な（でも、ちゃんと覚えていられて忘れないもの）を付けましょう。ユーザ名と同じものとか &amp;quot;333&amp;quot; とかすぐに類推できてしまうようなものを付けてはいけません。
 ここで決めたパスワードを忘れると、相当面倒なことになりますので慎重に！
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-08.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[9] 「パスワードのヒント」を入力するように促されます。これは、パスワードを忘れてしまった時に、そのヒントとなるような文言を入れておく機能です。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-08.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「パスワードのヒント」を入力するように促されます。これは、パスワードを忘れてしまった時に、そのヒントとなるような文言を入れておく機能です。
 思い出すのに役にたつかもしれませんが、　このPCに触れる人なら誰でもこのヒントが見られてしまいますので、あなたのパスワードが漏れる危険性を大きくするものです。あまり良い機能ではありません。
 何か記入をしないと次に進めないので、適当に無意味な文字列を入れておきましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-09.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10] 顔認証は結構面白くて便利ですが、設定に少し時間かかりますので今はスキップしておきましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-10.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11] コルタナの利用も、今の所は「いいえ」としておきます。後から使うように変更できます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-11.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[12] 「デバイスのプライバシー設定の選択」では、あなたのプライバシー情報がMicrosoftのサーバなどに送られる可能性がある機能のオン／オフを設定します。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-09.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">顔認証は結構面白くて便利ですが、設定に少し時間かかりますので今はスキップしておきましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-10.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コルタナの利用も、今の所は「いいえ」としておきます。後から使うように変更できます。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-11.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「デバイスのプライバシー設定の選択」では、あなたのプライバシー情報がMicrosoftのサーバなどに送られる可能性がある機能のオン／オフを設定します。
 本来は、利便性とプライバシーを比較して各個人で決定するものです。
 Microsoftは全部をオンにすることを勧めていますが、「音声認識」と「位置情報」以外の五つは利用者にとってそれほどメリットがあるものではないので、オフにしておいたら良いでしょう。
 「同意」をクリックします。これで設定項目は終了です。しばらく待ちましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-12.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[13] 数分待つと、Windows10のデスクトップ画面が出てきます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-13.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-0-12.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数分待つと、Windows10のデスクトップ画面が出てきます。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-13.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自分のパソコンの基本的なスペックを確認しておきましょう。CPUの型式、OSのビット数、記憶容量など。 </t>
   </si>
   <si>
     <t>パソコンのスペック確認</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2019 Win10 chap.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自分のパソコンの基本的なスペックを確認しておきましょう。CPUの型式、OSのビット数、記憶容量など。 </t>
   </si>
   <si>
     <t xml:space="preserve">最初に、目の前のPCがどんなものなのかを確認しましょう。PCの処理能力や容量の目安になるさまざまな要素を「スペック」と呼ぶことがあります。ここでは以下のスペックを確認しましょう。
@@ -179,40 +210,48 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">[1] まず、OSのバージョンを確認しましょう。画面左下のウィンドウアイコン を右クリックします。
+    <t xml:space="preserve">まず、OSのバージョンを確認しましょう。画面左下のウィンドウアイコン を右クリックします。
 &lt;p class="spl"&gt;※「右クリック」はマウスの右ボタンをクリックする操作ですが、Surfaceにはマウスがついていません。その代わりに、タッチパッドの右下のあたりをタップするか、もしくは、画面を長くタップします。もしくは、ペンの側面ボタンを押しながら、ペン先で画面タップでも可。&lt;/p&gt;
 メニューが表示されるので、「システム」を探してクリックしてください。
-  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-1-01.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2] 「バージョン情報」という名前のウィンドウが開きます。中にPCに関する情報がたくさん表示されています。
+   </t>
+  </si>
+  <si>
+    <t>win10-1-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「バージョン情報」という名前のウィンドウが開きます。中にPCに関する情報がたくさん表示されています。
 「Windowsの仕様」をみると「エディション」のところに「Windows 10 Pro」とありますね。これがOSの種類です。「バージョン」のところには詳細なバージョン番号（いつ時点に出されたOSか）が書かれています。&lt;span class="check"&gt;check-1&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 その上の方に「デバイスの仕様」がありますね。ここの「システムの種類」を見ると、OSのビット数がわかります。&amp;quot;64ビットオペレーティングシステム&amp;quot; とあります。64ビットですね。二進法で64桁のデータを一度に処理できるOSであるということを示しています。&lt;span class="check"&gt;check-2&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 その上に「実装RAM」と書かれたところがあります。ここを見ると、主記憶装置（メインメモリ）の容量がわかります。8GB（ギガバイト）ですね。この容量が大きいほど、大量のデータを一括して扱えたり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-1-02.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3] 次に、HDD/SSDの容量を調べましょう。HDD (Hard Disk Drive)や SSD (Solid State Drive) は、メインメモリほど読み書きが速くないですが、大容量でPCの電源を切っても内容が消えません。
+  </t>
+  </si>
+  <si>
+    <t>win10-1-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、HDD/SSDの容量を調べましょう。HDD (Hard Disk Drive)や SSD (Solid State Drive) は、メインメモリほど読み書きが速くないですが、大容量でPCの電源を切っても内容が消えません。
 まず画面下の帯の部分（タスクバー）のフォルダアイコンをクリックします。
 表示されるウィンドウの左の「PC」をクリックしてください。
 すると、左図のように「ローカルディスク (C:)」というラベルとともに、HDD/SSDの空き容量と全容量が表示されます。この場合は117GB（ギガバイト）です。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-1-03.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4] 最後にバッテリー駆動時間を確認しましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-1-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最後にバッテリー駆動時間を確認しましょう。
 画面下のタスクバーのバッテリーアイコンをクリックしてください。すると、バッテリー残量がパーセント表示され、およそあと何時間利用できるかの推定値が表示されます。
 100%充電時のここの残り時間表示が、あなたのPCのバッテリー駆動時間の推定値ということになります。（例：80%で「残り6時間」であれば、6÷0.8=7.5なので、バッテリー駆動時間は7.5時間）&lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 &lt;div class="spl"&gt;※ 残り時間は、システム起動後ある程度時間が経過し、しかも使用状況が安定した状態でないと表示されないようです。
 時間を置いて何度か試してみても表示されないようであれば、カタログなどで仕様を確認して記入してください。
  &lt;/div&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-1-04.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-1-04.svg</t>
   </si>
   <si>
     <t>panel panel-warning</t>
@@ -225,33 +264,41 @@
   </t>
   </si>
   <si>
-    <t xml:space="preserve">[5] 画面左下のWindowsアイコンをクリックした後Shiftキーを押しながら、「２」を押してみてください。
- そのときに「＠」が出るようだとキーボードの設定が間違って英語になっていますので変更しましょう。  歯車のアイコン「設定」をクリックしてください。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-1-11.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[6]「時刻と言語」をクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-1-12.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[7]左メニューから「地域と言語」をクリックしてください。
- 真ん中の「言語」から「日本語」をクリックしてください。 その後表示される「オプション」をクリックしてください。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-1-13.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[8]左メニューの真ん中あたりにある「レイアウトを変更する」をクリックしてください。
- すると青い画面がでますので，「英語キーボード(101/102キー）」となっているのを「日本語キーボード(106/109キー）」に変更し、「サインアウト」をクリックしてください。 これでキーボードが日本語の設定になりました。 一度サインアウトしていますので，4ページで設定した、このパソコンのIDとパスワードでもう一度入り直してください。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-1-14.svg" /&gt;  </t>
+    <t xml:space="preserve">画面左下のWindowsアイコンをクリックした後Shiftキーを押しながら、「２」を押してみてください。
+ そのときに「＠」が出るようだとキーボードの設定が間違って英語になっていますので変更しましょう。  歯車のアイコン「設定」をクリックしてください。   </t>
+  </si>
+  <si>
+    <t>win10-1-11.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「時刻と言語」をクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-1-12.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左メニューから「地域と言語」をクリックしてください。
+ 真ん中の「言語」から「日本語」をクリックしてください。 その後表示される「オプション」をクリックしてください。   </t>
+  </si>
+  <si>
+    <t>win10-1-13.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左メニューの真ん中あたりにある「レイアウトを変更する」をクリックしてください。
+ すると青い画面がでますので，「英語キーボード(101/102キー）」となっているのを「日本語キーボード(106/109キー）」に変更し、「サインアウト」をクリックしてください。 これでキーボードが日本語の設定になりました。 一度サインアウトしていますので，4ページで設定した、このパソコンのIDとパスワードでもう一度入り直してください。   </t>
+  </si>
+  <si>
+    <t>win10-1-14.svg</t>
+  </si>
+  <si>
+    <t>Windowsを最新版にアップデートし、Microsoft Office などをインストールしましょう。</t>
   </si>
   <si>
     <t>必要なソフトウェアのインストール</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2019 Win10 chap.2</t>
-  </si>
-  <si>
-    <t>Windowsを最新版にアップデートし、Microsoft Office などをインストールしましょう。</t>
   </si>
   <si>
     <t xml:space="preserve">ソフトのインストールに必要なファイルを、USBメモリにいれて配布しますので、まずそれを各々のPCにコピーしてください。そのあと、インストールを開始します。ここでは、Microsoft OfficeとGoogle Chromeインストールを行います。
@@ -265,8 +312,10 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;この章を始める前に&lt;/h2&gt;
-この章では、初期講習会の会場で配布されるUSBメモリの使用を前提に説明しています。
+    <t>&lt;h2&gt;この章を始める前に&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この章では、初期講習会の会場で配布されるUSBメモリの使用を前提に説明しています。
 講習会に参加できなかった方が以降の作業を行いたい場合は、以下のいずれかをしてください。
 &lt;ol&gt;&lt;li&gt;メディアセンターのカウンターに行ってUSBメモリを借り、この章の説明にしたがって行う。&lt;/li&gt;
 &lt;li&gt;Web上の配布サイトから直接ダウンロードしてインストールし、次の章に進む。 ※ 以下のサイトの説明に従ってください。開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
@@ -280,80 +329,105 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="copy"&gt;&lt;/a&gt;
-USBメモリからファイルをコピーする&lt;/h2&gt;
-[1] 配布されたUSBメモリをUSBポートに挿します。PCがUSBメモリを正常に認識すると、ぽんぽこりんという音がします。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-01.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2] 画面の右下に「FIRST LECというリムーバブルドライブをはじめて認識したけどどうする？」という旨のメッセージが出ます。それをクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-02.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3] 画面右上に可能な操作のリストが表示されます。「フォルダーを開いてファイルを表示」を選んでください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-03.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4] FIRST LECというウィンドウが開きます。その中に入っている「setup2019-win10」というフォルダをデスクトップにドラッグしてコピーしましょう。
+    <t>&lt;h2&gt;&lt;a name="copy"&gt;&lt;/a&gt;USBメモリからファイルをコピーする&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配布されたUSBメモリをUSBポートに挿します。PCがUSBメモリを正常に認識すると、ぽんぽこりんという音がします。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画面の右下に「FIRST LECというリムーバブルドライブをはじめて認識したけどどうする？」という旨のメッセージが出ます。それをクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画面右上に可能な操作のリストが表示されます。「フォルダーを開いてファイルを表示」を選んでください。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRST LECというウィンドウが開きます。その中に入っている「setup2019-win10」というフォルダをデスクトップにドラッグしてコピーしましょう。
 ※ コピーをするには、フォルダを選択してcontrol-C （コピー）、デスクトップをクリックして control-V （貼り付け）する方法もあります。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-04.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5] コピーが終わったらUSBメモリを取り外します。ウィンドウ左の「FIRST LEC (D:)」を右クリックして、「取り出し」をクリックします。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-05.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;
-Officeを入れる&lt;/h2&gt;
-Microsoft Office365 ProPlus の正規版がすでに入っている場合には、ここを飛ばして&lt;a href="#chrome"&gt;[10]に進んでください&lt;/a&gt;
+  </t>
+  </si>
+  <si>
+    <t>win10-2-04.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コピーが終わったらUSBメモリを取り外します。ウィンドウ左の「FIRST LEC (D:)」を右クリックして、「取り出し」をクリックします。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-05.svg</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Office365 ProPlus の正規版がすでに入っている場合には、ここを飛ばして&lt;a href="#chrome"&gt;[10]に進んでください&lt;/a&gt;
 。Office2013が入っている場合は、それをそのままにしてOffice 365を追加インストールすることができます。
-[6] デスクトップにコピーした「setup2019-win10」というフォルダをダブルクリックして開きます。さらに中に「office2016win-jp」というフォルダがあるので、ダブルクリックして開きます。
+デスクトップにコピーした「setup2019-win10」というフォルダをダブルクリックして開きます。さらに中に「office2016win-jp」というフォルダがあるので、ダブルクリックして開きます。
 「install」という項目をダブルクリックして実行してください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-06.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[7] プログラムをインストールするときは、文書を作成するなどの通常の利用とは違う場所にファイルを作成しますので、このような警告が表示されます。「はい」をクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-07.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[8] 「すぐに完了します」などと出ますが、なかなか終わりません。気長に待ちましょう。10分くらいかかります。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-2-08.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[9] このような画面になったらできあがりです。「閉じる」をクリックして作業終了。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-2-09.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;
-Chromeを入れる&lt;/h2&gt;
-[10] 次にGoogle Chromeを入れます。USBメモリからコピーしたWindowsフォルダにある &amp;quot;ChromeStandaloneSetup64&amp;quot;をダブルクリックして開いください。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-06.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プログラムをインストールするときは、文書を作成するなどの通常の利用とは違う場所にファイルを作成しますので、このような警告が表示されます。「はい」をクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-07.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「すぐに完了します」などと出ますが、なかなか終わりません。気長に待ちましょう。10分くらいかかります。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-08.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このような画面になったらできあがりです。「閉じる」をクリックして作業終了。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-09.svg</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Chromeを入れる&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次にGoogle Chromeを入れます。USBメモリからコピーしたWindowsフォルダにある &amp;quot;ChromeStandaloneSetup64&amp;quot;をダブルクリックして開いください。
 「このアプリがデバイスに変更を加えることを許可しますか」と聞かれるので「はい」と答えてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-10.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11] Chromeのインストールはあっという間に終わります。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-10.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromeのインストールはあっという間に終わります。
 &lt;p class="spl"&gt;※ Windows10にはEdgeというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページがときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-11.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-2-11.svg</t>
+  </si>
+  <si>
+    <t>無線LANで学内ネットワークに接続できるように設定しましょう。</t>
   </si>
   <si>
     <t>学内ネットワークへの接続</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2019 Win10 chap.3</t>
-  </si>
-  <si>
-    <t>無線LANで学内ネットワークに接続できるように設定しましょう。</t>
   </si>
   <si>
     <t xml:space="preserve">広島大学では、図書館、講義室、福利施設など学内の多くの共用スペースで、「HiNET Wi-Fi」が利用できます。ここでは、HiNET Wi-Fiを通して、あなたのPCで学内ネットワークとインターネットを利用できるようにしましょう。一度設定すると、次回からは（同じエリアでは）設定不要です。
@@ -364,49 +438,63 @@
 一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名(IMCアカウント名)」です。こちらは、先頭の一文字を小文字にしたものになっています。
 対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
 IMCアカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、5節で紹介します。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-4-01.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1]PCをHINET Wi-Fiに接続する設定をおこないます。
+  </t>
+  </si>
+  <si>
+    <t>win10-4-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCをHINET Wi-Fiに接続する設定をおこないます。
 画面右下のWi-Fiアイコンをみてください。最初の指示通りWi-Fi機能をオフにしている場合には、&lt;img height="30px" src="image/win10-wifi-indicator_3.png" /&gt;のようなアイコンになっています。まずこれをクリックして、&amp;quot;Wi-Fi&amp;quot;のボタンをクリック、Wi-Fi機能をオンにしましょう
 Wi-Fi機能がオンになるとタスクバーのアイコンが&lt;img height="30px" src="image/win10-wifi-indicator_1.png" /&gt;となります。次の項目に進みましょう
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-02.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2] Wi-Fiの一覧が出ますので，「HU-CUPXX」(XXは数字) を選択します。数字の部分はエリアで異なります。 総合科学部付近では「HU-CUP30」に接続できます。霞は「HU-CUP40」、東千田は「HU-CUP50」です。 
+  </t>
+  </si>
+  <si>
+    <t>win10-4-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wi-Fiの一覧が出ますので，「HU-CUPXX」(XXは数字) を選択します。数字の部分はエリアで異なります。 総合科学部付近では「HU-CUP30」に接続できます。霞は「HU-CUP40」、東千田は「HU-CUP50」です。 
 &lt;p class="spl"&gt;※ 教室で「HU-CUPXX」が表示されない場合は、あなたのパソコンが教室の無線LANに対応していないのかもしれません。メディアセンターに相談してください。&lt;/p&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-03.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3]「接続」をクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-4-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「接続」をクリックしてください。
 このときに「自動的に接続」にチェックを入れておくと，次回から同じWi-Fiには自動的に接続され，手間が省けます。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-04.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4] 「ユーザ名」のところにアカウント名を入力します。
+  </t>
+  </si>
+  <si>
+    <t>win10-4-04.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ユーザ名」のところにアカウント名を入力します。
 &lt;p class="spl"&gt;※ アカウント名は学生番号の最初のアルファベットが小文字のものになります&lt;/p&gt;
 「パスワード」には広大パスワードを記入します。
 &lt;p class="spl"&gt;※ 大文字を入力するときは、SHIFTキーを押しながら文字キーを押します。&lt;/p&gt;
 両方を入力したら「OK」をクリックしてください。
-  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-05.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5] この画面になったら「接続」をクリックしてください。
+   </t>
+  </si>
+  <si>
+    <t>win10-4-05.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この画面になったら「接続」をクリックしてください。
 これで接続の設定が完了しました。
 接続が完了すると「接続済み」と表示されます。&lt;span class="check"&gt;check-4&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
-  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-06.svg" /&gt;  </t>
+   </t>
+  </si>
+  <si>
+    <t>win10-4-06.svg</t>
   </si>
   <si>
     <t xml:space="preserve">手順 [3] で選んだ HU-CUPXX ですが、どのエリアでどんな名前のアクセスポイントが使われているかを示します。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-4-07.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-4-07.svg</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;div class="panel-heading"&gt;&lt;span class="glyphicon glyphicon-warning-sign"&gt;&lt;/span&gt;
@@ -422,17 +510,19 @@
 &lt;li&gt;&amp;quot;HU-CUPXX&amp;quot; で右クリック→削除。これを全てのHU-CUPXXで行います。 &lt;/li&gt;
 &lt;li&gt;すると、HU-CUPXXが未接続状態でまた表示されますので、この章でやったようにまた設定 &lt;/li&gt;
 &lt;/ol&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-4-10.png" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-4-10.png</t>
+  </si>
+  <si>
+    <t>Microsoft Update を使って、Windows と Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。</t>
   </si>
   <si>
     <t>自動アップデートとソフトのセットアップ</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2019 Win10 chap.4</t>
-  </si>
-  <si>
-    <t>Microsoft Update を使って、Windows と Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。</t>
   </si>
   <si>
     <t xml:space="preserve">Windows Update を使って、WindowとOfficeがつねに最新版で使えるように設定します。また、Officeを利用するには、広大メールアドレスでのサインインが必要ですので、これをやっておきましょう。
@@ -447,126 +537,163 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;
-Windows Updateの設定&lt;/h2&gt;
-[1] まず、Windows Updateを設定しましょう。画面左下の「Windows」アイコンをクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-01.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2] 歯車の形をした、「設定」アイコンをクリックします。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-02.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3] 「更新とセキュリティ」をクリックします。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-03.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4] ウィルス対策ソフトのDefenderを含めて、Windows基本システムは定期的に自動更新されます。
+    <t>&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;Windows Updateの設定&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まず、Windows Updateを設定しましょう。画面左下の「Windows」アイコンをクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歯車の形をした、「設定」アイコンをクリックします。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「更新とセキュリティ」をクリックします。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウィルス対策ソフトのDefenderを含めて、Windows基本システムは定期的に自動更新されます。
 このウィンドウの上の方で更新状況が確認できます。&lt;span class="check"&gt;check-5&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 さらに、Officeも自動更新するように設定しましょう。「詳細オプション」をクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-04.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5] 「Windowsの更新時に他のMicrosoft製品の更新プログラムも入手します」にチェックを入れてください。これにより、Officeも自動更新されるようになります。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-04.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「Windowsの更新時に他のMicrosoft製品の更新プログラムも入手します」にチェックを入れてください。これにより、Officeも自動更新されるようになります。
 画面左上の「←」をクリックして、前の画面に戻ってください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-05.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="defender"&gt;&lt;/a&gt;
-Defenderの手動更新とフルスキャン&lt;/h2&gt;
-[6] 自動アップデートのタイミング以外にDefenderを更新する方法について説明します。Windowsの自動更新機能で、Defenderは最新状態にたもたれます。しかし、緊急の脆弱性が発表された場合など、すぐに更新した方が良い時もあります。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-05.svg</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="defender"&gt;&lt;/a&gt;Defenderの手動更新とフルスキャン&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自動アップデートのタイミング以外にDefenderを更新する方法について説明します。Windowsの自動更新機能で、Defenderは最新状態にたもたれます。しかし、緊急の脆弱性が発表された場合など、すぐに更新した方が良い時もあります。
 ウィンドウ左のリストから「Windows セキュリティ」をクリックし、「Windows Defender セキュリティセンターを開きます」をクリックします。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-06.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[7] 「ウイルスと脅威の防止」をクリックしましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-07.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[8] Defenderでは、ウイルスやスパイウェアその他の悪意を持つプログラム全般を「脅威」とし、それらを判別するルールを保存したファイルを「脅威の定義」と呼んでいます。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-06.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ウイルスと脅威の防止」をクリックしましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-07.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defenderでは、ウイルスやスパイウェアその他の悪意を持つプログラム全般を「脅威」とし、それらを判別するルールを保存したファイルを「脅威の定義」と呼んでいます。
 「ウイルスと脅威の防止の更新」の下に、前回いつ「脅威の定義」が更新されたかが書かれています。&lt;span class="check"&gt;check-6,7&lt;/span&gt;
 脅威の定義を新しくするには「ウイルスと脅威の防止の更新」をクリックします。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-08.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[9] この画面で「更新プログラムのチェック」をクリックすると、脅威の定義の新しいものが出ているか確認を行い、あればそれを入手します。普段は、定期的に自動で確認されているので、これを押す必要はありません。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-08.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この画面で「更新プログラムのチェック」をクリックすると、脅威の定義の新しいものが出ているか確認を行い、あればそれを入手します。普段は、定期的に自動で確認されているので、これを押す必要はありません。
 ウィンドウ左上の戻る矢印をクリックして前の画面に戻りましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-09.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10] システム全体のウイルスチェックを実施する方法を確認します。チェックには時間がかかりますので、講習会の会場では行わないでください。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-09.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">システム全体のウイルスチェックを実施する方法を確認します。チェックには時間がかかりますので、講習会の会場では行わないでください。
 システム全体のウイルスチェックを「フルスキャン」と呼びます。それに対して「クイックスキャン」はよく攻撃される場所に限定して調査を行いますので、時間が短くて済みます。
 フルスキャンを行うには「新しい高度なスキャンを実行」をクリックしましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-10.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11] 三種類の高度なスキャンがありますね。「フルスキャン」を選んで「今すぐスキャン」とすると、フルスキャンが実施されます。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
+  </t>
+  </si>
+  <si>
+    <t>win10-5-10.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三種類の高度なスキャンがありますね。「フルスキャン」を選んで「今すぐスキャン」とすると、フルスキャンが実施されます。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 実施には数時間かかりますので、講習会会場では実施しないでください。講習会終了後、できるだけ早く実施し、点検届けを完成させてください。
 右上の×をクリックして、ウィンドウを閉じましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-11.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;
-Officeのアクティベーション&lt;/h2&gt;
-[12] 次に、Officeのアクティベートをします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための作業です。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-11.svg</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeのアクティベーション&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、Officeのアクティベートをします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための作業です。
 Officeに含まれるアプリを起動しましょう。どれでも良いのですが、ここではExcelを起動します。
 左下のWindowsアイコンをクリックし、表示されるメニューから「Excel」を探してクリックしましょう。
 ※ 見つからない時は、キーボードから「Excel」と打ち込んでみてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-12.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[13] 「同意してExcelを開始する」をクリックします。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-12.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「同意してExcelを開始する」をクリックします。
 ※この「同意する」は、ソフトウェアの使用許諾契約に同意することを意味します。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-13.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[14] Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があります。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-13.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があります。
 右上の「サインインしてOffieを最大限に活用しましょう」をクリックしましょう。「Microsoft サインイン」というパネルが出ます。広大メールアドレス（b19xxxxx@hiroshima-u.ac.jp という形式）を記入し、「次へ」をクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-14.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[15] HIROSHIMA UNIVERSITYと書かれたパネルが表示されます。広大パスワードを記入して「サインイン」をクリックします。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-15.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[16] 「このアカウントをWindowsに追加しますか」と聞かれますので、「はい」と答えます。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-14.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIROSHIMA UNIVERSITYと書かれたパネルが表示されます。広大パスワードを記入して「サインイン」をクリックします。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-15.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「このアカウントをWindowsに追加しますか」と聞かれますので、「はい」と答えます。
 ※ 追加しないと、Wordなど他のOfficeアプリケーションなどを起動した時にサインイン作業がまた必要になります。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-16.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[17] 「しばらくお待ちください」と言う旨のメッセージが表示され、処理が完了すると「準備が完了しました！」となります。「完了」をクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-16.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「しばらくお待ちください」と言う旨のメッセージが表示され、処理が完了すると「準備が完了しました！」となります。「完了」をクリックしてください。
 これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-9&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 以上でこの章の作業は終了です。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-17.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-5-17.svg</t>
+  </si>
+  <si>
+    <t>電子メールやクラウドストレージが使えるOffice365、オンライン履修登録などをおこなう「もみじ」、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるように設定します。</t>
   </si>
   <si>
     <t>大学のオンラインサービスへのログイン</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2019 Win10 chap.5</t>
-  </si>
-  <si>
-    <t>電子メールやクラウドストレージが使えるOffice365、オンライン履修登録などをおこなう「もみじ」、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるように設定します。</t>
   </si>
   <si>
     <t xml:space="preserve">オンライン履修登録などをおこなう「もみじ」、広大メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているオンラインサービスにログインしてみましょう。
@@ -588,128 +715,155 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="momiji"&gt;&lt;/a&gt;
-もみじ (広大学生用ポータルサイト)&lt;/h2&gt;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 広島大学では、学生向けの情報を「もみじ」という名前のサイトに集めています。こういうサイトのことを「ポータル」と呼びます。
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="momiji"&gt;&lt;/a&gt;もみじ (広大学生用ポータルサイト)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では、学生向けの情報を「もみじ」という名前のサイトに集めています。こういうサイトのことを「ポータル」と呼びます。
 GoogleなどのWeb検索で「広大　もみじ」と入力し、「もみじ 広島大学　学生情報の森 MOMIJI」を見つけてクリックしてください。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-01.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2] 「もみじ」はこのような画面です。以下では、右側に並んでいるバナーのうち、「Webメール」について説明します。次に、履修登録などを行う「MYもみじ」について、最後に「Bb9」について説明します。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-02.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;
-Office365 (Webメールとオンラインストレージ)&lt;/h2&gt;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3] 「もみじ」で「Webメール」のバナーをクリックしましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-03.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4] 「Office365ポータル」をクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-04.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5] Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「もみじ」はこのような画面です。以下では、右側に並んでいるバナーのうち、「Webメール」について説明します。次に、履修登録などを行う「MYもみじ」について、最後に「Bb9」について説明します。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;Office365 (Webメールとオンラインストレージ)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「もみじ」で「Webメール」のバナーをクリックしましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「Office365ポータル」をクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-04.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
 Hiroshima Universityと書かれた画面に移動しますので、広大パスワードを入力し「サインイン」をクリックします。
  &lt;/div&gt;
 &lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-28.svg" /&gt; &lt;img alt="*screenshot*" class="chart" src="image/win10-6-05.svg" /&gt;  </t>
   </si>
   <si>
-    <t xml:space="preserve">[6] Office365で使えるアプリの一覧が表示されます。「Outlook」をクリック。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart flame" src="image/win10-6-27.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[7] 最初の一回だけ、使用言語とタイムゾーンを選ぶ画面が出ます。通常は「日本語」と「UTC+9」を選んでおけば良いでしょう。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart flame" src="image/win10-6-06.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[8]メールの画面が開きます。
+    <t xml:space="preserve">Office365で使えるアプリの一覧が表示されます。「Outlook」をクリック。 
+  </t>
+  </si>
+  <si>
+    <t>chart flame</t>
+  </si>
+  <si>
+    <t>win10-6-27.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最初の一回だけ、使用言語とタイムゾーンを選ぶ画面が出ます。通常は「日本語」と「UTC+9」を選んでおけば良いでしょう。 
+  </t>
+  </si>
+  <si>
+    <t>win10-6-06.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メールの画面が開きます。
 大学からの電子メールでの連絡は、広大メールで来ます。
 常にメールチェックするようにしてください。&lt;span class="check"&gt;check-10&lt;/span&gt;
 スマホのOutlookアプリでも、複雑な設定は必要なくメールの送受信が可能です。ここは必携PC設定の手順を示していますので、Web版をお知らせしましたが、スマホ版の方が使いやすく、新規メールが届いた時の通知もありますので、おすすめです。
-&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt; &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-07.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[9]次に、Office365のオンラインストレージのOneDriveを見て見ましょう。画面左上のつぶつぶをクリックします。
+&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
+  </si>
+  <si>
+    <t>win10-6-07.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、Office365のオンラインストレージのOneDriveを見て見ましょう。画面左上のつぶつぶをクリックします。
 するとOffice365で使用できるアプリケーション一覧が表示されます。その中にある「OneDrive」をクリックしましょう
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-08.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10]ここにはひとりあたり１TBまで、データを置いておくことができます。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-08.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ここにはひとりあたり１TBまで、データを置いておくことができます。
 データのバックアップをとっておいたり、外出先でもデータを取り出したりできるようになるので、活用しましょう。
 OneDriveにもアプリがありますので、スマホでも活用できます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-09.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;
-MYもみじ (履修登録や掲示板など)&lt;/h2&gt;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11] 広島大学では履修登録、成績確認、各種通知は「MYもみじ」を利用して行います。「MYもみじ」へログインしてみましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-09.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;MYもみじ (履修登録や掲示板など)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では履修登録、成績確認、各種通知は「MYもみじ」を利用して行います。「MYもみじ」へログインしてみましょう。
 広大ID（学生番号）、広大パスワードを入力し、「Myもみじへログイン」をクリックしてください。
-  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-10.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[12]するとこのような画面になります。&lt;span class="check"&gt;check-11&lt;/span&gt;
+   </t>
+  </si>
+  <si>
+    <t>win10-6-10.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">するとこのような画面になります。&lt;span class="check"&gt;check-11&lt;/span&gt;
 履修登録をしたり、成績を確認することができます。
 また「掲示」では、授業や学部からの連絡が表示されます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-11.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[13]閲覧が済んだら、画面右上の「ログアウト」をクリックしましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-12.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;
-Bb9 (学習支援システム)&lt;/h2&gt;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[14]ではもみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-11.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">閲覧が済んだら、画面右上の「ログアウト」をクリックしましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-12.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9 (学習支援システム)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ではもみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
 「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
 ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-13.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[15]右側にかわいいイラストのバナーがありますね。これをクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-14.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[16]するとログイン画面が開きます。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-13.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">右側にかわいいイラストのバナーがありますね。これをクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-14.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">するとログイン画面が開きます。
 「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
 入力したら「ログイン」をクリックします。
-  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-15.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[17]一番最初にログインしたときだけ、この画面が開きます。
+   </t>
+  </si>
+  <si>
+    <t>win10-6-15.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一番最初にログインしたときだけ、この画面が開きます。
 「閉じる」をクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-16.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[18] 2回目からはログインしたら、この画面が出ます。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-16.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2回目からはログインしたら、この画面が出ます。
 真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
 ここに並んでいるコースは、あなたが受講する授業に関連したものと、そうでないものがあります。今並んでいるものを簡単に説明すると：
 &lt;dl&gt;&lt;dt&gt;大学教育入門&lt;/dt&gt;
@@ -720,56 +874,71 @@
 &lt;dd&gt;「情報セキュリティ・コンプライアンス講習」は、広島大学でパソコンやネットワークを安全に使うための講座です。学生だけでなく、教職員を含めた全構成員必修の内容です。講習は、教室での講義とオンライン学習（このコース）からなっています。6月末までにこのコースの中にある確認テストに合格し、「&lt;em&gt;アカウント利用確認&lt;/em&gt;
 」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。&lt;/dd&gt;
  &lt;/dl&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-17.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[19] Bb9で配布されている教材を開けることを確認するため、「大学教育入門」のコースをみてみましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-17.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bb9で配布されている教材を開けることを確認するため、「大学教育入門」のコースをみてみましょう。
 転入生の方は、「大学教育入門」がありませんので、「Information Security and Compliance」のコースを開いて、スライドなどがみられることを確認してください。
  「大学教育入門」では、授業に参加する前に各自必携PCに教材をダウンロードしておくことが求められています。先ほど開いたメールにその旨の指示が来ていたと思います。
 ここでは、第1週に実施される講義の資料をダウンロードする手順を紹介しておきます。
 まず、コース一覧から「2019大学教育入門...」をクリックしてコースを開きましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-18.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[20] 左メニューの「テキスト・スライド資料」をクリックすると右側にフォルダが表示されます。各週の資料がまとめられていますね。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-18.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左メニューの「テキスト・スライド資料」をクリックすると右側にフォルダが表示されます。各週の資料がまとめられていますね。
 「第1章　大学で何を学ぶか（各学部・プログラム）」をクリックして開きましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-19.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[21] フォルダの中には三つのファイルがありました。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-19.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フォルダの中には三つのファイルがありました。
 「第1章テキスト (PDF)」の内容を確認してみましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-20.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[22] このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-20.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。
 内容を確認したら、上の方の閲覧履歴が出てるところの「第1章...」をクリックして前の画面に戻りましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-21.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[23] 掲載されているファイルを保存（ダウンロード）する一番簡単な方法は、この画面でリンクを右クリック→保存とすることです。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-21.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">掲載されているファイルを保存（ダウンロード）する一番簡単な方法は、この画面でリンクを右クリック→保存とすることです。
 「第1章テキスト (PDF)」を左クリックして表示されるメニューから「対象をファイルに保存」とします。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-22.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[24] このようなパネルが表示されます。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-22.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このようなパネルが表示されます。
 まず、保存されるファイルの名称と種類を確認しましょう。Edgeを使っていると、教員がつけたファイル名がここに出ているはずです。出ていなかったら、適切な名前を記入してください。ファイル形式も「PDF」になっていることを確認しましょう。HTMLとか別のものになっている場合は、違う場所で右クリックしていた可能性があります。
 次にファイルが保存されるフォルダを確認します。初期状態では「ダウンロード」フォルダです。わかりやすい場所にこれ用のフォルダを作ってそこに保存するのも良いでしょう。「ダウンロード」以外のフォルダに保存したい場合は、左側の欄を利用してフォルダを指定できます。指定したフォルダが、図の「(2) 保存先の...」のところに表示されていることを確認しましょう。
 右下の「保存」ボタンをクリックすれば保存されます。
 第1週の授業で説明されるのは&lt;em&gt;第1章と第6章&lt;/em&gt;
 です。これらの章のファイルを同様にして保存してください。&lt;span class="check"&gt;check-12&lt;/span&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-23.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="omake"&gt;&lt;/a&gt;
-おまけ&lt;/h2&gt;
-以降は補足情報であり、講習会のときに設定しません。後日必要に応じて行ってください。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-23.svg</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="omake"&gt;&lt;/a&gt;おまけ&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以降は補足情報であり、講習会のときに設定しません。後日必要に応じて行ってください。
  </t>
   </si>
   <si>
@@ -777,28 +946,36 @@
 学内ネットワークからであれば、必携PCから大学のプリンタへ印刷できます。印刷したいものをPDFで用意し、Webブラウザで印刷用のWebサーバに送ります。そのあと、プリンタが設置してあるところに行って、印刷操作をしてください。その際、印刷料金がかかります。白黒印刷は1枚3円、カラー印刷は1枚12円です。MYple（学生証にチャージする生協の電子マネー）で支払ってください。 
 詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/print/webprint"&gt;「Webプリントサービス」&lt;/a&gt;
 で。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-6-24.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-6-24.svg</t>
   </si>
   <si>
     <t xml:space="preserve">Bb9を便利に利用できるスマホ用アプリもあります。iOSのApp StoreやAndroidのGoogle Playで&amp;quot;Blackboard&amp;quot;と検索してみてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/bb9-app.jpg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>bb9-app.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">次に、OneDriveについて。一般に広く使われているDropBoxと同様に、PC用のアプリがあります。これを入れておくと、PC上の特定のフォルダとOneDriveの内容が自動的に同期されるようになります。スマホのアプリにもOneDriveがありますが、これは自動的に同期はしません。全部を同期するとスマホの容量を圧迫するからでしょう。
 OneDriveのアプリは、Web版のOneDrive サイトから入手できます。
 詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/onedriveforbusiness/"&gt;「クラウドファイル保管サービス(OneDrive for Business)」&lt;/a&gt;
 で。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-6-25.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-6-25.svg</t>
   </si>
   <si>
     <t xml:space="preserve">最後に、VPNについて。「もみじ」で成績を見る時や、前述のプリンタ利用の時など、いくつかのサービスは学内ネットワークからしか利用ができません。自宅や帰省先でこういったサービスを使いたい場合は、VPNが使えます。設定のしかたについてはメディアセンターの説明ページを参照してください。
 詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/hinet/vpngw"&gt;「VPN(SSL-VPN)サービス」&lt;/a&gt;
 で。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-6-26.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-6-26.svg</t>
   </si>
   <si>
     <t>おわりに</t>
@@ -810,8 +987,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;問い合わせ&lt;/h3&gt;
-必携PCを使っていて、わからないことや困ったことがあったら、情報メディア教育研究センターに相談してください。
+    <t>&lt;h3&gt;問い合わせ&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;F3S講習会&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必携PCを使っていて、わからないことや困ったことがあったら、情報メディア教育研究センターに相談してください。
 &lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
 &lt;dd&gt;メディアセンター本館、西分室（西図書館）、北分室（中央図書館）、霞分室（基礎講義棟1F）&lt;/dd&gt;
@@ -819,9 +1001,7 @@
 &lt;dt&gt; &lt;/dt&gt;
 &lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
 &lt;/dd&gt;
- &lt;/dl&gt;
-&lt;h3&gt;F3S講習会&lt;/h3&gt;
-情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を開催しています。 
+ &lt;/dl&gt;情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を開催しています。 
 学生生活を送る上で有用なパソコンの使い方について、一つでも多く身につけてもらえるようさまざまな内容を準備していますので、 興味のあるものが見つかったら、ぜひ参加してください。 
 &lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
  &lt;/li&gt;
@@ -1161,19 +1341,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1181,7 +1362,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1189,39 +1370,52 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1237,245 +1431,246 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+      <c r="A18" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
+      <c r="A19" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
+      <c r="A20" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1491,189 +1686,190 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
+      <c r="A12" t="s">
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1683,237 +1879,258 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+      <c r="A18" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
+      <c r="A19" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1929,189 +2146,190 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
+      <c r="A15" t="s">
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2121,307 +2339,323 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+      <c r="A18" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
+      <c r="A19" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
+      <c r="A20" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
+      <c r="A22" t="s">
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
+      <c r="A23" t="s">
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
+      <c r="A24" t="s">
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2431,531 +2665,557 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+      <c r="A18" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
+      <c r="A19" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
+      <c r="A20" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
+      <c r="A21" t="s">
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
+      <c r="A23" t="s">
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
+      <c r="A24" t="s">
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
+      <c r="A25" t="s">
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
+      <c r="A26" t="s">
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
+      <c r="A28" t="s">
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
+      <c r="A29" t="s">
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
+      <c r="A30" t="s">
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
+      <c r="A31" t="s">
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
+      <c r="A32" t="s">
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
+      <c r="A33" t="s">
+        <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
+      <c r="A34" t="s">
+        <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
+      <c r="A35" t="s">
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
+      <c r="A36" t="s">
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>6</v>
+      <c r="A37" t="s">
+        <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>6</v>
+      <c r="A38" t="s">
+        <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>6</v>
+      <c r="A39" t="s">
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B40" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2965,75 +3225,86 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/win10.xlsx
+++ b/data/xlsx/win10.xlsx
@@ -21,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="234">
-  <si>
-    <t>div_class</t>
-  </si>
-  <si>
-    <t>col-sm-12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="229">
   <si>
     <t>header1</t>
   </si>
@@ -47,13 +41,11 @@
     <t>FRESTA-TEXT-2019 Win10</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Widows10編&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">2019年4月&lt;br&gt;
+    <t xml:space="preserve">&lt;h3&gt;Widows10編&lt;/h3&gt;
+2019年4月&lt;br&gt;
  広島大学 情報メディア教育研究センター&lt;br&gt;
  広島大学 消費生活協同組合 
  </t>
@@ -69,16 +61,10 @@
     <t xml:space="preserve">購入したばかりの Windows 10 の電源を入れて、使い始められるようになるまでに必要な設定作業を説明します。 </t>
   </si>
   <si>
-    <t>col-sm-4 col-md-6</t>
-  </si>
-  <si>
     <t>初期設定</t>
   </si>
   <si>
-    <t>img_class</t>
-  </si>
-  <si>
-    <t>chart</t>
+    <t>fresta</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2019 Win10 chap.0</t>
@@ -1341,7 +1327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,45 +1363,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1439,10 +1412,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1450,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1458,219 +1431,211 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1645,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1694,10 +1659,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1705,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1713,163 +1678,155 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +1836,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1893,10 +1850,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1904,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1912,225 +1869,217 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2089,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2154,10 +2103,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2165,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2173,163 +2122,155 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2280,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2353,10 +2294,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2364,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2372,290 +2313,282 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2665,7 +2598,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2679,10 +2612,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2690,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2698,524 +2631,516 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
         <v>178</v>
-      </c>
-      <c r="D18" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>188</v>
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>195</v>
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="B40" s="1" t="s">
-        <v>218</v>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3225,7 +3150,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3242,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3250,61 +3175,53 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/win10.xlsx
+++ b/data/xlsx/win10.xlsx
@@ -29,7 +29,7 @@
     <t>広島大学必携PC初期講習会</t>
   </si>
   <si>
-    <t>templete</t>
+    <t>template</t>
   </si>
   <si>
     <t>index</t>
